--- a/Calib_Summary/Final_CVM_Model_Summary.xlsx
+++ b/Calib_Summary/Final_CVM_Model_Summary.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgliebe\Documents\Projects\SANDAG\Final Summary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E8798B-7E82-460F-86B9-8D26EF1489B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28155" yWindow="120" windowWidth="28155" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ModelData" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -289,8 +295,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,24 +348,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -397,7 +412,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -431,6 +446,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,9 +481,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,14 +657,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:EP51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="DO1" workbookViewId="0">
+      <selection activeCell="EO5" sqref="EO5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="1:146">
+    <row r="3" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -907,60 +926,60 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:146">
+    <row r="4" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04317623462760488</v>
+        <v>4.3176234627604879E-2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03462586073496276</v>
+        <v>3.4625860734962759E-2</v>
       </c>
       <c r="H4">
-        <v>0.195387746093191</v>
+        <v>0.19538774609319101</v>
       </c>
       <c r="I4">
-        <v>0.02177335050558704</v>
+        <v>2.1773350505587041E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0412647894392402</v>
+        <v>4.1264789439240203E-2</v>
       </c>
       <c r="M4">
-        <v>0.3688687584247632</v>
+        <v>0.36886875842476319</v>
       </c>
       <c r="N4">
-        <v>0.0612900337810148</v>
+        <v>6.1290033781014802E-2</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.04269395276097939</v>
+        <v>4.2693952760979391E-2</v>
       </c>
       <c r="R4">
         <v>0.3876195320263473</v>
       </c>
       <c r="S4">
-        <v>0.06232679960975045</v>
+        <v>6.2326799609750447E-2</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.04539858204122697</v>
+        <v>4.5398582041226973E-2</v>
       </c>
       <c r="W4">
         <v>0.3545841867859138</v>
       </c>
       <c r="X4">
-        <v>0.07816282346663406</v>
+        <v>7.8162823466634057E-2</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -975,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="AF4">
-        <v>920.24429893</v>
+        <v>920.24429893000001</v>
       </c>
       <c r="AG4">
         <v>2.621778629430199</v>
@@ -1011,10 +1030,10 @@
         <v>82</v>
       </c>
       <c r="BD4" t="s">
-        <v>45</v>
-      </c>
-      <c r="BE4">
-        <v>6083</v>
+        <v>49</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>100343</v>
       </c>
       <c r="BI4" t="s">
         <v>51</v>
@@ -1044,7 +1063,7 @@
         <v>55</v>
       </c>
       <c r="BY4">
-        <v>0.248775677000475</v>
+        <v>0.24877567700047501</v>
       </c>
       <c r="CD4" t="s">
         <v>55</v>
@@ -1068,7 +1087,7 @@
         <v>55</v>
       </c>
       <c r="CO4">
-        <v>0.2505017118207974</v>
+        <v>0.25050171182079739</v>
       </c>
       <c r="CS4" t="s">
         <v>55</v>
@@ -1113,7 +1132,7 @@
         <v>71</v>
       </c>
       <c r="DM4">
-        <v>7.526260856569847</v>
+        <v>7.5262608565698468</v>
       </c>
       <c r="DQ4" t="s">
         <v>55</v>
@@ -1158,69 +1177,69 @@
         <v>71</v>
       </c>
       <c r="EK4">
-        <v>4.228454735978082</v>
+        <v>4.2284547359780822</v>
       </c>
       <c r="EO4" t="s">
         <v>49</v>
       </c>
       <c r="EP4">
-        <v>2276</v>
-      </c>
-    </row>
-    <row r="5" spans="1:146">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="5" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3865036968931374</v>
+        <v>0.38650369689313741</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0.0475479071266467</v>
+        <v>4.75479071266467E-2</v>
       </c>
       <c r="H5">
-        <v>0.3704694696979871</v>
+        <v>0.37046946969798711</v>
       </c>
       <c r="I5">
-        <v>0.05344313588569433</v>
+        <v>5.3443135885694333E-2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.04630927136166536</v>
+        <v>4.6309271361665363E-2</v>
       </c>
       <c r="M5">
-        <v>0.4154090039145658</v>
+        <v>0.41540900391456581</v>
       </c>
       <c r="N5">
-        <v>0.07578632340844174</v>
+        <v>7.5786323408441741E-2</v>
       </c>
       <c r="P5">
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.04627534908606622</v>
+        <v>4.6275349086066217E-2</v>
       </c>
       <c r="R5">
-        <v>0.3793334069985868</v>
+        <v>0.37933340699858681</v>
       </c>
       <c r="S5">
-        <v>0.09541782737904844</v>
+        <v>9.5417827379048442E-2</v>
       </c>
       <c r="U5">
         <v>1</v>
       </c>
       <c r="V5">
-        <v>0.04230429520102064</v>
+        <v>4.2304295201020643E-2</v>
       </c>
       <c r="W5">
-        <v>0.3990273370626016</v>
+        <v>0.39902733706260157</v>
       </c>
       <c r="X5">
-        <v>0.06231803461022604</v>
+        <v>6.2318034610226038E-2</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -1235,10 +1254,10 @@
         <v>2</v>
       </c>
       <c r="AF5">
-        <v>11130.23686308</v>
+        <v>11130.236863079999</v>
       </c>
       <c r="AG5">
-        <v>3.075500652964908</v>
+        <v>3.0755006529649078</v>
       </c>
       <c r="AJ5">
         <v>1</v>
@@ -1271,10 +1290,10 @@
         <v>102</v>
       </c>
       <c r="BD5" t="s">
-        <v>46</v>
-      </c>
-      <c r="BE5">
-        <v>8549</v>
+        <v>48</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>93503</v>
       </c>
       <c r="BI5" t="s">
         <v>52</v>
@@ -1304,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="BY5">
-        <v>11.56700485219845</v>
+        <v>11.567004852198449</v>
       </c>
       <c r="CD5" t="s">
         <v>55</v>
@@ -1373,7 +1392,7 @@
         <v>72</v>
       </c>
       <c r="DM5">
-        <v>9.571251063814035</v>
+        <v>9.5712510638140351</v>
       </c>
       <c r="DQ5" t="s">
         <v>78</v>
@@ -1421,27 +1440,27 @@
         <v>47</v>
       </c>
       <c r="EP5">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:146">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:146" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06678293939225442</v>
+        <v>6.6782939392254423E-2</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>0.04716865564915659</v>
+        <v>4.7168655649156593E-2</v>
       </c>
       <c r="H6">
-        <v>0.5203992969001502</v>
+        <v>0.52039929690015019</v>
       </c>
       <c r="I6">
-        <v>0.05975494064390044</v>
+        <v>5.9754940643900439E-2</v>
       </c>
       <c r="Z6">
         <v>3</v>
@@ -1456,10 +1475,10 @@
         <v>3</v>
       </c>
       <c r="AF6">
-        <v>352.9941688</v>
+        <v>352.99416880000001</v>
       </c>
       <c r="AG6">
-        <v>4.468280617721519</v>
+        <v>4.4682806177215193</v>
       </c>
       <c r="AJ6">
         <v>2</v>
@@ -1492,10 +1511,10 @@
         <v>139</v>
       </c>
       <c r="BD6" t="s">
-        <v>47</v>
-      </c>
-      <c r="BE6">
-        <v>15557</v>
+        <v>46</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>7468</v>
       </c>
       <c r="BI6" t="s">
         <v>53</v>
@@ -1549,7 +1568,7 @@
         <v>57</v>
       </c>
       <c r="CO6">
-        <v>3.649287650911568</v>
+        <v>3.6492876509115679</v>
       </c>
       <c r="CS6" t="s">
         <v>79</v>
@@ -1594,7 +1613,7 @@
         <v>73</v>
       </c>
       <c r="DM6">
-        <v>6.312268490327486</v>
+        <v>6.3122684903274857</v>
       </c>
       <c r="DQ6" t="s">
         <v>79</v>
@@ -1642,21 +1661,21 @@
         <v>45</v>
       </c>
       <c r="EP6">
-        <v>16736</v>
-      </c>
-    </row>
-    <row r="7" spans="1:146">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:146" x14ac:dyDescent="0.35">
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>0.04698546626179272</v>
+        <v>4.6985466261792723E-2</v>
       </c>
       <c r="H7">
         <v>0.5560510882918801</v>
       </c>
       <c r="I7">
-        <v>0.1826707772188869</v>
+        <v>0.18267077721888689</v>
       </c>
       <c r="Z7">
         <v>4</v>
@@ -1671,10 +1690,10 @@
         <v>4</v>
       </c>
       <c r="AF7">
-        <v>36356.30616228</v>
+        <v>36356.306162280001</v>
       </c>
       <c r="AG7">
-        <v>4.530945433983051</v>
+        <v>4.5309454339830513</v>
       </c>
       <c r="AJ7">
         <v>2</v>
@@ -1707,10 +1726,10 @@
         <v>155</v>
       </c>
       <c r="BD7" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE7">
-        <v>96105</v>
+        <v>45</v>
+      </c>
+      <c r="BE7" s="2">
+        <v>5539</v>
       </c>
       <c r="BN7" t="s">
         <v>55</v>
@@ -1734,7 +1753,7 @@
         <v>58</v>
       </c>
       <c r="BY7">
-        <v>8.13732930596465</v>
+        <v>8.1373293059646503</v>
       </c>
       <c r="CD7" t="s">
         <v>55</v>
@@ -1758,7 +1777,7 @@
         <v>58</v>
       </c>
       <c r="CO7">
-        <v>2.814621842357045</v>
+        <v>2.8146218423570448</v>
       </c>
       <c r="CS7" t="s">
         <v>80</v>
@@ -1842,10 +1861,10 @@
         <v>48</v>
       </c>
       <c r="EP7">
-        <v>24152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:146">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="8" spans="1:146" x14ac:dyDescent="0.35">
       <c r="Z8">
         <v>5</v>
       </c>
@@ -1862,7 +1881,7 @@
         <v>12044.02436182</v>
       </c>
       <c r="AG8">
-        <v>3.325241403042518</v>
+        <v>3.3252414030425181</v>
       </c>
       <c r="AJ8">
         <v>3</v>
@@ -1895,10 +1914,10 @@
         <v>217</v>
       </c>
       <c r="BD8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE8">
-        <v>101056</v>
+        <v>47</v>
+      </c>
+      <c r="BE8" s="2">
+        <v>15481</v>
       </c>
       <c r="BN8" t="s">
         <v>55</v>
@@ -2018,18 +2037,18 @@
         <v>46</v>
       </c>
       <c r="EP8">
-        <v>16313</v>
-      </c>
-    </row>
-    <row r="9" spans="1:146">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE9">
         <v>6</v>
       </c>
       <c r="AF9">
-        <v>18178.69000815</v>
+        <v>18178.690008149999</v>
       </c>
       <c r="AG9">
-        <v>3.079568017643571</v>
+        <v>3.0795680176435711</v>
       </c>
       <c r="AJ9">
         <v>3</v>
@@ -2152,7 +2171,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:146">
+    <row r="10" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE10">
         <v>7</v>
       </c>
@@ -2160,7 +2179,7 @@
         <v>4603.2929316</v>
       </c>
       <c r="AG10">
-        <v>3.68263434528</v>
+        <v>3.6826343452799999</v>
       </c>
       <c r="AJ10">
         <v>4</v>
@@ -2283,12 +2302,12 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:146">
+    <row r="11" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE11">
         <v>8</v>
       </c>
       <c r="AF11">
-        <v>56324.38479138</v>
+        <v>56324.384791379998</v>
       </c>
       <c r="AG11">
         <v>2.585229026088034</v>
@@ -2414,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:146">
+    <row r="12" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE12">
         <v>9</v>
       </c>
@@ -2422,7 +2441,7 @@
         <v>32641.88311821</v>
       </c>
       <c r="AG12">
-        <v>3.258973953495407</v>
+        <v>3.2589739534954072</v>
       </c>
       <c r="AJ12">
         <v>5</v>
@@ -2491,15 +2510,15 @@
         <v>7780</v>
       </c>
     </row>
-    <row r="13" spans="1:146">
+    <row r="13" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE13">
         <v>10</v>
       </c>
       <c r="AF13">
-        <v>51352.58837696</v>
+        <v>51352.588376959997</v>
       </c>
       <c r="AG13">
-        <v>2.237293093580795</v>
+        <v>2.2372930935807949</v>
       </c>
       <c r="AO13">
         <v>10</v>
@@ -2559,7 +2578,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="14" spans="1:146">
+    <row r="14" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AE14">
         <v>11</v>
       </c>
@@ -2627,7 +2646,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="15" spans="1:146">
+    <row r="15" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AO15">
         <v>12</v>
       </c>
@@ -2686,7 +2705,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="16" spans="1:146">
+    <row r="16" spans="1:146" x14ac:dyDescent="0.35">
       <c r="AO16">
         <v>13</v>
       </c>
@@ -2727,7 +2746,7 @@
         <v>4728</v>
       </c>
     </row>
-    <row r="17" spans="41:84">
+    <row r="17" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AO17">
         <v>14</v>
       </c>
@@ -2768,7 +2787,7 @@
         <v>12329</v>
       </c>
     </row>
-    <row r="18" spans="41:84">
+    <row r="18" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AO18">
         <v>15</v>
       </c>
@@ -2809,7 +2828,7 @@
         <v>9874</v>
       </c>
     </row>
-    <row r="19" spans="41:84">
+    <row r="19" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT19">
         <v>16</v>
       </c>
@@ -2844,7 +2863,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="20" spans="41:84">
+    <row r="20" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT20">
         <v>17</v>
       </c>
@@ -2879,7 +2898,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="21" spans="41:84">
+    <row r="21" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT21">
         <v>18</v>
       </c>
@@ -2914,7 +2933,7 @@
         <v>3265</v>
       </c>
     </row>
-    <row r="22" spans="41:84">
+    <row r="22" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT22">
         <v>19</v>
       </c>
@@ -2949,7 +2968,7 @@
         <v>12394</v>
       </c>
     </row>
-    <row r="23" spans="41:84">
+    <row r="23" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT23">
         <v>20</v>
       </c>
@@ -2984,7 +3003,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="24" spans="41:84">
+    <row r="24" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AT24">
         <v>21</v>
       </c>
@@ -3019,7 +3038,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="25" spans="41:84">
+    <row r="25" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY25">
         <v>26</v>
       </c>
@@ -3045,7 +3064,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="26" spans="41:84">
+    <row r="26" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY26">
         <v>28</v>
       </c>
@@ -3071,7 +3090,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="41:84">
+    <row r="27" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY27">
         <v>2</v>
       </c>
@@ -3097,7 +3116,7 @@
         <v>8394</v>
       </c>
     </row>
-    <row r="28" spans="41:84">
+    <row r="28" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY28">
         <v>27</v>
       </c>
@@ -3123,7 +3142,7 @@
         <v>10511</v>
       </c>
     </row>
-    <row r="29" spans="41:84">
+    <row r="29" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY29">
         <v>25</v>
       </c>
@@ -3149,7 +3168,7 @@
         <v>12323</v>
       </c>
     </row>
-    <row r="30" spans="41:84">
+    <row r="30" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY30">
         <v>3</v>
       </c>
@@ -3175,7 +3194,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="31" spans="41:84">
+    <row r="31" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY31">
         <v>4</v>
       </c>
@@ -3201,7 +3220,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="32" spans="41:84">
+    <row r="32" spans="41:84" x14ac:dyDescent="0.35">
       <c r="AY32">
         <v>24</v>
       </c>
@@ -3227,7 +3246,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="33" spans="51:84">
+    <row r="33" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY33">
         <v>5</v>
       </c>
@@ -3253,7 +3272,7 @@
         <v>3919</v>
       </c>
     </row>
-    <row r="34" spans="51:84">
+    <row r="34" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY34">
         <v>23</v>
       </c>
@@ -3279,7 +3298,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="35" spans="51:84">
+    <row r="35" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY35">
         <v>20</v>
       </c>
@@ -3305,7 +3324,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="36" spans="51:84">
+    <row r="36" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY36">
         <v>21</v>
       </c>
@@ -3331,7 +3350,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="37" spans="51:84">
+    <row r="37" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY37">
         <v>22</v>
       </c>
@@ -3357,7 +3376,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="51:84">
+    <row r="38" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY38">
         <v>19</v>
       </c>
@@ -3383,7 +3402,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="39" spans="51:84">
+    <row r="39" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY39">
         <v>6</v>
       </c>
@@ -3409,7 +3428,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="40" spans="51:84">
+    <row r="40" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY40">
         <v>18</v>
       </c>
@@ -3435,7 +3454,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="51:84">
+    <row r="41" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY41">
         <v>7</v>
       </c>
@@ -3461,7 +3480,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="51:84">
+    <row r="42" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY42">
         <v>17</v>
       </c>
@@ -3487,7 +3506,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="51:84">
+    <row r="43" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY43">
         <v>16</v>
       </c>
@@ -3513,7 +3532,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="44" spans="51:84">
+    <row r="44" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY44">
         <v>8</v>
       </c>
@@ -3539,7 +3558,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="45" spans="51:84">
+    <row r="45" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY45">
         <v>15</v>
       </c>
@@ -3565,7 +3584,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="51:84">
+    <row r="46" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY46">
         <v>14</v>
       </c>
@@ -3591,7 +3610,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="47" spans="51:84">
+    <row r="47" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY47">
         <v>13</v>
       </c>
@@ -3617,7 +3636,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="51:84">
+    <row r="48" spans="51:84" x14ac:dyDescent="0.35">
       <c r="AY48">
         <v>9</v>
       </c>
@@ -3625,7 +3644,7 @@
         <v>17153</v>
       </c>
     </row>
-    <row r="49" spans="51:52">
+    <row r="49" spans="51:52" x14ac:dyDescent="0.35">
       <c r="AY49">
         <v>12</v>
       </c>
@@ -3633,7 +3652,7 @@
         <v>20135</v>
       </c>
     </row>
-    <row r="50" spans="51:52">
+    <row r="50" spans="51:52" x14ac:dyDescent="0.35">
       <c r="AY50">
         <v>10</v>
       </c>
@@ -3641,7 +3660,7 @@
         <v>21411</v>
       </c>
     </row>
-    <row r="51" spans="51:52">
+    <row r="51" spans="51:52" x14ac:dyDescent="0.35">
       <c r="AY51">
         <v>11</v>
       </c>
@@ -3655,6 +3674,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="608512b1-9b7f-4b66-9287-846c132e154a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A5D9AA5C7921F342991554F4D6B3A08A" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0206a618f35c0824d2fb24aead71b636">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="608512b1-9b7f-4b66-9287-846c132e154a" xmlns:ns3="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="92f8997cce93524906d692cae9c8e282" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3894,36 +3935,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="608512b1-9b7f-4b66-9287-846c132e154a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3F4A72-E119-45BF-8D39-8333F144F5C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D87322-F634-4CA3-8A1C-CEE2594B9CB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="608512b1-9b7f-4b66-9287-846c132e154a"/>
+    <ds:schemaRef ds:uri="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A994E9C-EB57-4A1E-A779-30D83CC27049}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8A994E9C-EB57-4A1E-A779-30D83CC27049}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19D87322-F634-4CA3-8A1C-CEE2594B9CB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B3F4A72-E119-45BF-8D39-8333F144F5C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="608512b1-9b7f-4b66-9287-846c132e154a"/>
+    <ds:schemaRef ds:uri="8a8ccdf0-e2fe-48b3-ba2f-122b2fdfcc3b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>